--- a/CASUAL/LA ONT/ANGCAYA, JEIZELLE DEINA C..xlsx
+++ b/CASUAL/LA ONT/ANGCAYA, JEIZELLE DEINA C..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>UT(0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-1-26)</t>
   </si>
 </sst>
 </file>
@@ -572,6 +575,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -584,20 +596,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,7 +1056,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1099,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1163,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1223,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1289,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1352,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1450,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1509,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1574,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1617,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1692,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1878,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1944,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2002,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2068,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2124,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2199,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2242,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2308,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2364,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2462,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2525,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2971,7 +2974,7 @@
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="E46" activeCellId="1" sqref="F47 E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3001,14 +3004,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3019,16 +3022,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="56">
         <v>43868</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3041,14 +3044,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="57"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3074,18 +3077,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3132,7 +3135,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>46.641999999999996</v>
+        <v>46.463000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3753,11 +3756,15 @@
       <c r="A40" s="40">
         <v>44682</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C40" s="13">
         <v>1.25</v>
       </c>
-      <c r="D40" s="39"/>
+      <c r="D40" s="39">
+        <v>0.17900000000000002</v>
+      </c>
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
@@ -4935,17 +4942,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5043,12 +5050,14 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3"/>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
+      </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.5</v>
+        <v>0.17900000000000002</v>
       </c>
       <c r="J3" s="1">
         <v>7</v>
@@ -5099,7 +5108,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>103.892</v>
+        <v>103.71299999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/CASUAL/LA ONT/ANGCAYA, JEIZELLE DEINA C..xlsx
+++ b/CASUAL/LA ONT/ANGCAYA, JEIZELLE DEINA C..xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>PERIOD</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>UT(0-1-26)</t>
+  </si>
+  <si>
+    <t>UT(0-2-6)</t>
+  </si>
+  <si>
+    <t>UT(0-1-11)</t>
+  </si>
+  <si>
+    <t>UT(0-2-0)</t>
   </si>
 </sst>
 </file>
@@ -575,15 +584,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -596,11 +596,20 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1056,7 +1065,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1099,7 +1108,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1163,7 +1172,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1232,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1289,7 +1298,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1352,7 +1361,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1450,7 +1459,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1518,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1583,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1617,7 +1626,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1692,7 +1701,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1878,7 +1887,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1953,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2011,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2077,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2124,7 +2133,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2208,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2242,7 +2251,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2308,7 +2317,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2364,7 +2373,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2462,7 +2471,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2525,7 +2534,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2591,7 +2600,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K107" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table15" displayName="Table15" ref="A8:K108" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2969,12 +2978,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K107"/>
+  <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E46" activeCellId="1" sqref="F47 E46"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3004,14 +3013,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -3022,16 +3031,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="53">
         <v>43868</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -3044,14 +3053,14 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="57"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3077,18 +3086,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3135,7 +3144,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table15[EARNED])-SUM(Table15[Absence Undertime W/ Pay])</f>
-        <v>46.463000000000001</v>
+        <v>45.802999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3848,11 +3857,15 @@
       <c r="A44" s="40">
         <v>44805</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C44" s="13">
         <v>1.25</v>
       </c>
-      <c r="D44" s="39"/>
+      <c r="D44" s="39">
+        <v>0.25</v>
+      </c>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
@@ -3888,11 +3901,15 @@
       <c r="A46" s="40">
         <v>44866</v>
       </c>
-      <c r="B46" s="20"/>
+      <c r="B46" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C46" s="13">
         <v>1.25</v>
       </c>
-      <c r="D46" s="39"/>
+      <c r="D46" s="39">
+        <v>0.14800000000000002</v>
+      </c>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
@@ -3929,12 +3946,14 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="20"/>
+      <c r="A48" s="40"/>
+      <c r="B48" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>0.26200000000000001</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -3947,19 +3966,17 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
-        <v>44957</v>
+      <c r="A49" s="48" t="s">
+        <v>45</v>
       </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C49" s="13"/>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
@@ -3968,7 +3985,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>44985</v>
+        <v>44957</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -3988,7 +4005,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>45016</v>
+        <v>44985</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -4008,7 +4025,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>45046</v>
+        <v>45016</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13">
@@ -4028,7 +4045,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>45077</v>
+        <v>45046</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13">
@@ -4048,7 +4065,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>45107</v>
+        <v>45077</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13">
@@ -4068,7 +4085,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>45138</v>
+        <v>45107</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -4088,7 +4105,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>45169</v>
+        <v>45138</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13">
@@ -4108,7 +4125,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>45199</v>
+        <v>45169</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13">
@@ -4128,7 +4145,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <v>45230</v>
+        <v>45199</v>
       </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13">
@@ -4148,7 +4165,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <v>45260</v>
+        <v>45230</v>
       </c>
       <c r="B59" s="20"/>
       <c r="C59" s="13">
@@ -4168,16 +4185,18 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
-        <v>45291</v>
+        <v>45260</v>
       </c>
       <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4186,7 +4205,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
-        <v>45322</v>
+        <v>45291</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4204,7 +4223,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
-        <v>45351</v>
+        <v>45322</v>
       </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4221,7 +4240,9 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>45351</v>
+      </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
@@ -4925,34 +4946,50 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="41"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="42"/>
-      <c r="D107" s="43"/>
+      <c r="A107" s="40"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="39"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="42" t="str">
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
         <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H107" s="43"/>
+      <c r="H107" s="39"/>
       <c r="I107" s="9"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="15"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="41"/>
+      <c r="B108" s="15"/>
+      <c r="C108" s="42"/>
+      <c r="D108" s="43"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="42" t="str">
+        <f>IF(ISBLANK(Table15[[#This Row],[EARNED]]),"",Table15[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="43"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -5050,14 +5087,12 @@
       <c r="B3" s="11"/>
       <c r="D3"/>
       <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>26</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="F3"/>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.17900000000000002</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="1">
         <v>7</v>
@@ -5108,7 +5143,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f>SUM('2018 LEAVE CREDITS'!E9,'2018 LEAVE CREDITS'!I9)</f>
-        <v>103.71299999999999</v>
+        <v>103.053</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
